--- a/Results/sfcc_CNN2DModel__PCC.xlsx
+++ b/Results/sfcc_CNN2DModel__PCC.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22745E42-C941-46ED-AEEA-26C97E3D5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE18BB8-7D29-46EE-AEB5-09022E52991D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -540,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1328,6 +1341,12 @@
         <v>0.93062506032307257</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>AVERAGE(B2:B46)</f>
+        <v>90.081609702506071</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
